--- a/mfa/S_cerevisiae/run_files/Plim__D_0_08/scGEM_Plim__D_0_08_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Plim__D_0_08/scGEM_Plim__D_0_08_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421794 ala__L_c + 0.166645 arg__L_c + 0.200320 asn__L_c + 0.200320 asp__L_c + 0.006044 cys__L_c + 0.334154 gln__L_c + 0.334154 glu__L_c + 0.383802 gly_c + 0.083323 his__L_c + 0.254285 ile__L_c + 0.345810 leu__L_c + 0.283642 lys__L_c + 0.049216 met__L_c + 0.162328 phe__L_c + 0.182187 pro__L_c + 0.230109 ser__L_c + 0.240470 thr__L_c + 0.028062 trp__L_c + 0.084618 tyr__L_c + 0.316453 val__L_c + 0.542496 mannan_c + 0.841837 13BDglucan_c + 0.221536 16BDglucan_c + 0.019903 chtn_c + 0.405862 glycogen_c + 0.020344 tre_c + 0.003843 ergstest_c + 0.015012 ergst_c + 0.003902 pail_c + 0.014560 pc_c + 0.003913 pe_c + 0.003361 ps_c + 0.003872 tag_c + 0.002172 ipcbiom_c + 0.000836 ffabiom_c + 0.069701 ctp_c + 0.071728 gtp_c + 0.093402 utp_c + 0.003120 datp_c + 0.002106 dctp_c + 0.002106 dgtp_c + 0.003120 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.564318 atp_c + 93.877119 h2o_c --&gt; 4.307735 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.624747 ppi_c</t>
+    <t xml:space="preserve">0.421794 ala__L_c + 0.166645 arg__L_c + 0.200320 asn__L_c + 0.200320 asp__L_c + 0.006044 cys__L_c + 0.334154 gln__L_c + 0.334154 glu__L_c + 0.383802 gly_c + 0.083323 his__L_c + 0.254285 ile__L_c + 0.345810 leu__L_c + 0.283642 lys__L_c + 0.049216 met__L_c + 0.162328 phe__L_c + 0.182187 pro__L_c + 0.230109 ser__L_c + 0.240470 thr__L_c + 0.028062 trp__L_c + 0.084618 tyr__L_c + 0.316453 val__L_c + 0.542496 mannan_c + 0.841837 13BDglucan_c + 0.221536 16BDglucan_c + 0.019903 chtn_c + 0.405862 glycogen_c + 0.020344 tre_c + 0.003843 ergstest_c + 0.015012 ergst_c + 0.003902 pail_c + 0.014560 pc_c + 0.003913 pe_c + 0.003361 ps_c + 0.003872 tag_c + 0.002172 ipcbiom_c + 0.000836 ffabiom_c + 0.069701 ctp_c + 0.071728 gtp_c + 0.093402 utp_c + 0.003120 datp_c + 0.002106 dctp_c + 0.002106 dgtp_c + 0.003120 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.842406 atp_c + 135.155207 h2o_c --&gt; 4.307735 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.624747 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14336,10 +14336,10 @@
   </sheetPr>
   <dimension ref="A1:N556"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A338" activeCellId="0" sqref="A338"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32682,7 +32682,7 @@
   </sheetPr>
   <dimension ref="A1:L473"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A345" activeCellId="0" sqref="A345"/>
